--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-medicationdispense-preparation.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-medicationdispense-preparation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="135">
   <si>
     <t>Property</t>
   </si>
@@ -330,15 +330,105 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>string
-CodeableConcept</t>
+    <t xml:space="preserve">CodeableConcept
+</t>
   </si>
   <si>
     <t>調剤結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationInstructionForDispenseJHSP0002_VS</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Extension.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
 </sst>
 </file>
@@ -655,7 +745,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -664,9 +754,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -674,7 +764,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -688,18 +778,18 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1284,16 +1374,14 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>102</v>
@@ -1308,10 +1396,520 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
